--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T11:44:23+02:00</t>
+    <t>2025-01-19T20:06:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,10 +449,10 @@
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
-    <t>PatientProfile</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/StructureDefinition/PatientProfile</t>
+    <t>GreekPatientProfile</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/StructureDefinition/GreekPatientProfile</t>
   </si>
   <si>
     <t>Custom Patient that supports AMKA and Emergency Contact</t>
